--- a/data/trans_bre/CONS_ANS-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANS-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,53%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,19; 3,29</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,01</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 0,5</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 6,88</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-66,07; 573,35</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 163,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,78; 446,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>242,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-10,33%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 1,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 4,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 4,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,0</t>
+          <t>-3,78; 2,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,95; 155,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,35; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,29; 481,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,53; 189,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>201,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>45,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>223,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-69,06%</t>
+          <t>-19,83%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,85; 4,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,83</t>
+          <t>-1,14; 4,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,88; 7,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,16</t>
+          <t>-6,39; 2,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,84; 723,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,22; 204,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,51; 674,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 69,29</t>
+          <t>-67,93; 79,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-63,11%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>58,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>62,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>81,87%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,52</t>
+          <t>-1,77; 3,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 7,25</t>
+          <t>-1,2; 10,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,97</t>
+          <t>-0,08; 6,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,29</t>
+          <t>-0,41; 12,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 150,81</t>
+          <t>-26,17; 81,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,77; 471,06</t>
+          <t>-16,83; 449,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,63; 201,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,58; 309,84</t>
+          <t>-9,59; 254,67</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>10,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>75,75%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,33%</t>
+          <t>103,55%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>61,8%</t>
+          <t>60,3%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,71%</t>
+          <t>109,16%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,04</t>
+          <t>-1,42; 4,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 3,02</t>
+          <t>2,54; 10,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,9</t>
+          <t>-0,01; 8,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,35</t>
+          <t>2,86; 17,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-38,65; 483,48</t>
+          <t>-22,2; 98,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-69,5; 189,24</t>
+          <t>26,17; 220,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-58,67; 691,25</t>
+          <t>-2,27; 149,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-69,62; 151,65</t>
+          <t>13,87; 273,79</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>192,56%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-19,83%</t>
+          <t>32,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>50,84%</t>
+          <t>90,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>107,02%</t>
+          <t>61,24%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 7,47</t>
+          <t>1,43; 7,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 2,93</t>
+          <t>-4,93; 8,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,78</t>
+          <t>2,24; 9,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,16</t>
+          <t>-3,83; 14,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,2; 587,6</t>
+          <t>20,51; 218,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,45; 83,03</t>
+          <t>-57,16; 175,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 172,29</t>
+          <t>26,16; 189,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 326,24</t>
+          <t>-34,58; 254,12</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>14,95</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>64,62%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>81,87%</t>
+          <t>76,09%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>76,34%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>122,58%</t>
         </is>
       </c>
     </row>
@@ -1268,49 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 4,95</t>
+          <t>2,36; 10,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 12,45</t>
+          <t>1,95; 13,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 6,22</t>
+          <t>2,07; 10,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,68</t>
+          <t>6,81; 23,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 157,77</t>
+          <t>18,74; 129,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 256,01</t>
+          <t>12,39; 183,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 123,9</t>
+          <t>20,12; 157,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 95,04</t>
+          <t>38,82; 303,32</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,1</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>64,13%</t>
+          <t>60,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>109,16%</t>
+          <t>78,61%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>114,31%</t>
+          <t>80,54%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>80,37%</t>
         </is>
       </c>
     </row>
@@ -1368,366 +1368,63 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,1; 8,5</t>
+          <t>1,65; 3,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,0; 18,03</t>
+          <t>1,17; 5,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,84; 9,28</t>
+          <t>2,37; 4,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,46</t>
+          <t>3,06; 8,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,8; 171,39</t>
+          <t>31,92; 95,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,82; 275,81</t>
+          <t>25,28; 164,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>53,48; 202,99</t>
+          <t>45,55; 122,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 78,8</t>
+          <t>36,11; 138,1</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>4,92</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>6,05</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>5,85</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>4,2</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>68,34%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>61,24%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>114,85%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>99,46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 8,37</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,41; 15,27</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,28; 9,63</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 6,72</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>11,95; 145,94</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-31,03; 256,99</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>6,53; 230,79</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>31,24; 209,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>5,82</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>14,95</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>8,88</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>6,08</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>68,45%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>122,58%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>105,66%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>69,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 9,86</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>5,55; 23,73</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>4,91; 12,6</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>3,14; 9,78</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>24,55; 147,81</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>28,87; 310,17</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>44,94; 188,06</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>29,12; 139,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>5,63</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>4,08</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>66,94%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>80,69%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>91,41%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>58,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 4,79</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>3,22; 8,08</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>2,87; 5,24</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 3,22</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>37,81; 104,45</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>38,99; 134,69</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>57,66; 133,77</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>33,89; 87,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_bre/CONS_ANS-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANS-Edad-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>66,18%</t>
+          <t>-12,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,29</t>
+          <t>-2,66; 1,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,01</t>
+          <t>0,0; 8,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 6,88</t>
+          <t>-3,32; 8,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-66,07; 573,35</t>
+          <t>-77,67; 240,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-74,78; 446,0</t>
+          <t>-73,37; 536,62</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-26,57%</t>
+          <t>-34,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,19</t>
+          <t>-2,67; 0,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,72</t>
+          <t>-0,6; 4,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 2,96</t>
+          <t>-3,82; 2,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,95; 155,91</t>
+          <t>-80,65; 93,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-90,35; —</t>
+          <t>-91,87; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,53; 189,37</t>
+          <t>-67,89; 198,69</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>201,87%</t>
+          <t>114,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,73</t>
+          <t>-0,23; 3,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,11</t>
+          <t>-1,38; 4,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 2,9</t>
+          <t>-5,7; 2,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,84; 723,67</t>
+          <t>-23,75; 393,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 204,0</t>
+          <t>-29,46; 245,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-67,93; 79,99</t>
+          <t>-65,4; 69,29</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 3,42</t>
+          <t>-1,48; 2,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 10,1</t>
+          <t>-1,72; 9,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 12,45</t>
+          <t>-0,18; 12,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,17; 81,74</t>
+          <t>-26,77; 76,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 449,58</t>
+          <t>-21,51; 400,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 254,67</t>
+          <t>-5,72; 249,56</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
+          <t>37,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 4,3</t>
+          <t>-0,56; 4,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,54; 10,57</t>
+          <t>2,81; 10,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 17,84</t>
+          <t>3,19; 18,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 98,35</t>
+          <t>-8,68; 115,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,17; 220,98</t>
+          <t>31,15; 228,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,87; 273,79</t>
+          <t>21,42; 289,84</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>135,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,43; 7,01</t>
+          <t>2,74; 8,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 8,14</t>
+          <t>-5,32; 8,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 14,6</t>
+          <t>-2,73; 14,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,51; 218,54</t>
+          <t>52,82; 290,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,16; 175,32</t>
+          <t>-69,76; 188,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,58; 254,12</t>
+          <t>-26,35; 233,94</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>64,62%</t>
+          <t>81,16%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,36; 10,05</t>
+          <t>3,32; 10,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,95; 13,68</t>
+          <t>2,42; 13,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,81; 23,82</t>
+          <t>6,57; 24,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,74; 129,41</t>
+          <t>30,55; 153,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,39; 183,4</t>
+          <t>14,82; 180,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>38,82; 303,32</t>
+          <t>33,33; 286,71</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>60,45%</t>
+          <t>68,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,91</t>
+          <t>1,85; 3,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,3</t>
+          <t>1,32; 5,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1383,17 +1383,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,27</t>
+          <t>3,03; 8,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,92; 95,36</t>
+          <t>40,8; 104,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,28; 164,25</t>
+          <t>27,88; 162,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>36,11; 138,1</t>
+          <t>35,71; 140,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_ANS-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANS-Edad-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-0,27</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,48</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>36,53%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-62,38%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>-12,8%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-62,38%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>36,53%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 7,06</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 8,08</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 0,5</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-2,66; 1,88</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,72</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,3; 0,5</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 8,08</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-73,37; 536,62</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 163,5</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>-77,67; 240,04</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 163,5</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-73,37; 536,62</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-0,74</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>173,92%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-10,33%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>61,63%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>-34,59%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>242,7%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>61,63%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-10,33%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,42; 4,86</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 2,93</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 4,47</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-2,67; 0,86</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,6; 4,8</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,18; 4,47</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,82; 2,93</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-64,6; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-67,89; 198,69</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-41,29; 481,64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>-80,65; 93,95</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-91,87; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-41,29; 481,64</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-67,89; 198,69</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4,74</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,95</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,74</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>67,57%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-19,83%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>223,69%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>114,91%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>45,5%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>223,69%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-19,83%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,62; 4,32</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-5,7; 2,59</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 7,56</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-0,23; 3,92</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,38; 4,25</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 7,56</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; 2,59</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-19,39; 286,43</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-65,4; 69,29</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>46,51; 674,69</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-23,75; 393,87</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-29,46; 245,9</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>46,51; 674,69</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-65,4; 69,29</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5,66</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,57</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,92</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,66</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>-12,27%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>81,87%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>62,64%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>11,95%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>58,54%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>62,64%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>81,87%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-4,8; 2,21</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-0,18; 12,59</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 6,09</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-1,48; 2,91</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 9,76</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,08; 6,09</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,18; 12,59</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-46,28; 40,28</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-5,72; 249,56</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-6,63; 201,62</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>-26,77; 76,31</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-21,51; 400,91</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-6,63; 201,62</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-5,72; 249,56</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6,79</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10,1</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,25</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>1,9</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,63</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,25</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>10,1</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>110,69%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>109,16%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>60,3%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>37,89%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>103,55%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>60,3%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>109,16%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>3,14; 10,31</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 18,35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 8,14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>-0,56; 4,27</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,81; 10,25</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 8,14</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>3,19; 18,35</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>36,67; 240,1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21,42; 289,84</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 149,07</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>-8,68; 115,8</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>31,15; 228,57</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 149,07</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>21,42; 289,84</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>7,96</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6,05</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5,82</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>5,41</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,82</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,05</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>161,4%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>61,24%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>90,4%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>135,24%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>32,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>90,4%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>61,24%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>4,18; 12,08</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 14,37</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2,24; 9,5</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>2,74; 8,25</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-5,32; 8,42</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,24; 9,5</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,73; 14,37</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>51,83; 362,81</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-26,35; 233,94</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>26,16; 189,25</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>52,82; 290,45</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-69,76; 188,14</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>26,16; 189,25</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-26,35; 233,94</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>8,78</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14,95</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6,4</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>6,95</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,97</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>6,4</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>14,95</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>84,17%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>122,58%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>76,34%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>81,16%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>76,09%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>76,34%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>122,58%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>3,38; 14,64</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6,57; 24,16</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 10,26</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>3,32; 10,46</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 13,79</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 10,26</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>6,57; 24,16</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>22,09; 197,47</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>33,33; 286,71</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20,12; 157,17</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>30,55; 153,08</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>14,82; 180,85</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>20,12; 157,17</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>33,33; 286,71</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>3,87</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5,63</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3,67</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>2,88</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>3,43</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>3,67</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>5,63</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>82,1%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>80,37%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>80,54%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>68,94%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>78,61%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>80,54%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>80,37%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>2,53; 5,26</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 8,3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 4,99</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>1,85; 3,87</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>1,32; 5,39</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 4,99</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>3,03; 8,3</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>45,13; 128,39</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>35,71; 140,23</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>45,55; 122,83</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>40,8; 104,39</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>27,88; 162,1</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>45,55; 122,83</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>35,71; 140,23</t>
         </is>
       </c>
     </row>
